--- a/output/fit_clients/fit_round_451.xlsx
+++ b/output/fit_clients/fit_round_451.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2016310029.582156</v>
+        <v>2160964926.800135</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08989482343213427</v>
+        <v>0.09670888367947231</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04219154079188542</v>
+        <v>0.03685325835155005</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1008155012.616566</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2352064741.9147</v>
+        <v>2396280174.801122</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1295447442538673</v>
+        <v>0.1681364062922328</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03926597890976378</v>
+        <v>0.04126679428976394</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1176032465.559204</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4393458608.504725</v>
+        <v>4662926573.022843</v>
       </c>
       <c r="F4" t="n">
-        <v>0.161328141033677</v>
+        <v>0.1281268764303956</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0266407958569389</v>
+        <v>0.02470923008113712</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>163</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2196729346.325498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2801061562.186479</v>
+        <v>3473310085.325522</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06764158295847249</v>
+        <v>0.09046884040341742</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0435823197635767</v>
+        <v>0.04816479022920758</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>167</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1400530864.098855</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2752806543.259784</v>
+        <v>2581772793.384965</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1152029586578769</v>
+        <v>0.09849100871086044</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05551679041870763</v>
+        <v>0.04889956709107867</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>84</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1376403219.770637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2817989542.336576</v>
+        <v>2809521373.267323</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09277007695093029</v>
+        <v>0.08684667869194165</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03703125312577868</v>
+        <v>0.04103754323637079</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>142</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1408994753.58645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2545580436.222153</v>
+        <v>3420424432.503129</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1488047932212276</v>
+        <v>0.1668889778216967</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02518841591378333</v>
+        <v>0.02630169288839613</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>144</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1272790229.188381</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1519012425.94433</v>
+        <v>1945730875.157758</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1314058542093355</v>
+        <v>0.1655918487089745</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02506488331968773</v>
+        <v>0.02346475360388294</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>759506306.3260338</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4440534236.455631</v>
+        <v>5783852322.463897</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1874056553972282</v>
+        <v>0.1336436574935198</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03377458421912704</v>
+        <v>0.03519450530965978</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>190</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2220267174.244941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3968678168.59783</v>
+        <v>3767078502.200703</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1283148445494326</v>
+        <v>0.1783419962018071</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03971046126811612</v>
+        <v>0.03272303862564029</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>187</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1984339094.813178</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2902788360.972635</v>
+        <v>3220179799.163757</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1411642331031962</v>
+        <v>0.1286461417403054</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03867568119563765</v>
+        <v>0.04677384590745624</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>153</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1451394189.619222</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4228043036.40569</v>
+        <v>3570283559.193235</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1010411886966871</v>
+        <v>0.08363524986440844</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02877838595855402</v>
+        <v>0.03061335326963083</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>152</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2114021561.569981</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2728514918.460846</v>
+        <v>2838626834.133151</v>
       </c>
       <c r="F14" t="n">
-        <v>0.170440561425935</v>
+        <v>0.1776508155227142</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03995337096308631</v>
+        <v>0.03254554567892699</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>145</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1364257513.350067</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1746719826.5293</v>
+        <v>1703180431.981783</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09715828012692673</v>
+        <v>0.09843709129238348</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03840154316907152</v>
+        <v>0.03178834709262245</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>873360054.7332833</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2697542834.82529</v>
+        <v>1761543387.3378</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1035139275011971</v>
+        <v>0.07942091403551445</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04529682033980915</v>
+        <v>0.04474351416354984</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>93</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1348771430.603677</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4745302139.896565</v>
+        <v>3311475944.273213</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1517293783421242</v>
+        <v>0.1330431901653078</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03899189425256335</v>
+        <v>0.03624096569842726</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>135</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2372651067.720125</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3400692026.370979</v>
+        <v>2774037620.831587</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1754677556162335</v>
+        <v>0.1549261053558051</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02995128532496655</v>
+        <v>0.02142951185374016</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>148</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1700346014.411963</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1368934896.881423</v>
+        <v>894973404.8059729</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1697506074579773</v>
+        <v>0.1864109600377185</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01957838032459017</v>
+        <v>0.01871940760743963</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>684467567.4796498</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2245178192.988541</v>
+        <v>2172879052.576828</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1341562822553135</v>
+        <v>0.1082059664816539</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02943749862604658</v>
+        <v>0.03001712354096858</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>62</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1122589096.743239</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2622528640.371607</v>
+        <v>2516213439.453166</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09413882419806588</v>
+        <v>0.06219796072996</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03538872993168289</v>
+        <v>0.02804396601511772</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>35</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1311264296.588651</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3281980871.600049</v>
+        <v>3141805729.320466</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1221578373546273</v>
+        <v>0.1177235446461027</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03788025728254832</v>
+        <v>0.03761743566738138</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>124</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1640990480.466811</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1242023762.294428</v>
+        <v>1009994493.305482</v>
       </c>
       <c r="F23" t="n">
-        <v>0.173376074523941</v>
+        <v>0.1800615457500627</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04194931122194043</v>
+        <v>0.04672143691383498</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>621011910.5655648</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3047579554.452626</v>
+        <v>3800516215.681139</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1052316756520339</v>
+        <v>0.1203065432045776</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03190873749828769</v>
+        <v>0.02483916135829788</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>132</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1523789809.27179</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1049455285.05715</v>
+        <v>905138458.7005206</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1029738535493268</v>
+        <v>0.09366889280141165</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02838680605598665</v>
+        <v>0.02217744857528546</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>524727695.1722702</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>934834514.342942</v>
+        <v>1364646934.788325</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08788310836258305</v>
+        <v>0.09443254437015082</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03238172101257347</v>
+        <v>0.03481578660980991</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>467417213.3111742</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3049426576.097488</v>
+        <v>3313869868.925075</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1143766233632177</v>
+        <v>0.139961115401918</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01680087044591397</v>
+        <v>0.02607296435431879</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1524713345.434952</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2726923446.525164</v>
+        <v>2844596997.068215</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09695391731539806</v>
+        <v>0.09823585841662222</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0349796440487054</v>
+        <v>0.03424313317859735</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>146</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1363461710.802843</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4716812531.556501</v>
+        <v>4416154886.123217</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1168704858252362</v>
+        <v>0.133582447702553</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04552599868044916</v>
+        <v>0.03236511458325014</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>200</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2358406232.946036</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2199878351.152035</v>
+        <v>1501966467.660342</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1215157633768918</v>
+        <v>0.1196696863218705</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03348901941248807</v>
+        <v>0.02967110131115085</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1099939235.793936</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1267440316.677556</v>
+        <v>1417360158.564169</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07706544190504713</v>
+        <v>0.08026789933630962</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03242469974124639</v>
+        <v>0.04112374510595355</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>633720093.9503418</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1816481781.40834</v>
+        <v>1773808042.245808</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07492765875129176</v>
+        <v>0.1062894943940564</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02437764214081049</v>
+        <v>0.0238096616255909</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>908241024.620069</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3050307677.204433</v>
+        <v>2540655682.719917</v>
       </c>
       <c r="F33" t="n">
-        <v>0.201420911968447</v>
+        <v>0.1954057068360684</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05158226621749611</v>
+        <v>0.05768997274847427</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>138</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1525153829.955832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1418549193.986647</v>
+        <v>1576249179.761511</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09553141366069028</v>
+        <v>0.07376909082924522</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0231484510721231</v>
+        <v>0.02007422709935696</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>709274566.2097007</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>929307186.6425465</v>
+        <v>837878737.8826376</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1148191905664312</v>
+        <v>0.08454989003297356</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03975857765833053</v>
+        <v>0.03228244806994442</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>464653627.4115522</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2753323040.547257</v>
+        <v>2403219864.560712</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1484332983759507</v>
+        <v>0.1245264544328632</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01759489535201471</v>
+        <v>0.02226894744080822</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>115</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1376661521.983519</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2636666053.006368</v>
+        <v>2870788498.711085</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1115432537693052</v>
+        <v>0.08277978328753091</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03128051625755712</v>
+        <v>0.03742903979350373</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>120</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1318333141.386108</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1757748176.636776</v>
+        <v>2117869734.55469</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1033071594820482</v>
+        <v>0.105720503167191</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03563881787400825</v>
+        <v>0.031313142103427</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>878874101.1912106</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1799207843.185601</v>
+        <v>1872320002.181487</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1536528295231897</v>
+        <v>0.1353476369023465</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02977453507266475</v>
+        <v>0.02646932845618593</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>899603946.6351652</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1711526674.618534</v>
+        <v>1394292772.771993</v>
       </c>
       <c r="F40" t="n">
-        <v>0.145957259186282</v>
+        <v>0.1253750802367385</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05509028803934916</v>
+        <v>0.05621968987142525</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>855763250.5829927</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2142940064.289072</v>
+        <v>2886467669.013866</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1526188027609338</v>
+        <v>0.1502838977125915</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04399473352257386</v>
+        <v>0.03444004056525643</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>110</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1071470092.440983</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3473172479.825974</v>
+        <v>4240698173.617981</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1245600084515855</v>
+        <v>0.1100074527512388</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04241924457350663</v>
+        <v>0.03586139955025722</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>147</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1736586232.930301</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2318939388.047395</v>
+        <v>2297484825.237406</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1566755800239785</v>
+        <v>0.1432320869840639</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01720288917171143</v>
+        <v>0.02372957785662505</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>157</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1159469760.923426</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1582856372.154139</v>
+        <v>2346205792.865369</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1005257596952678</v>
+        <v>0.09629092769582379</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0231288469884525</v>
+        <v>0.02822937742336357</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>791428209.2142016</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2505138502.610378</v>
+        <v>2012465411.891639</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1242451737789076</v>
+        <v>0.1866979891998685</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04035782713847828</v>
+        <v>0.05057095420112602</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1252569293.089209</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3579586617.055227</v>
+        <v>5498228050.199466</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1320268844347798</v>
+        <v>0.1780734499022247</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05115620286416421</v>
+        <v>0.04026155656058612</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>161</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1789793254.046889</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4187179520.820762</v>
+        <v>3801614183.284923</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1261045343072977</v>
+        <v>0.1723995935937712</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05828159162992708</v>
+        <v>0.05449408490273523</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>124</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2093589770.158982</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4359105050.319067</v>
+        <v>4287421491.889482</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07104825501564346</v>
+        <v>0.07831007442766273</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02565633950576994</v>
+        <v>0.03808919557428656</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>148</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2179552538.677831</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1699082225.150029</v>
+        <v>1578210656.83092</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1517854467759473</v>
+        <v>0.1289218199332091</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02776463697087692</v>
+        <v>0.02913235008458916</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>849541113.6558951</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3942925854.590494</v>
+        <v>3609706972.561888</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1498883140731442</v>
+        <v>0.1110760379051883</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05221912572323734</v>
+        <v>0.03848463705599019</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>155</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1971462920.084441</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>988515745.1900709</v>
+        <v>1489427714.31364</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1399039271171627</v>
+        <v>0.1640825653778606</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04704435391408752</v>
+        <v>0.05362620166367901</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>494257958.444541</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3846864010.121127</v>
+        <v>3785230230.676002</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09958657263822862</v>
+        <v>0.1365890008401792</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03997154692904627</v>
+        <v>0.04553671366236942</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>186</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1923432070.57497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2544521615.220111</v>
+        <v>2734708899.951118</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1540937606261232</v>
+        <v>0.1826419814690644</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03371827343401809</v>
+        <v>0.03289492161333017</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>130</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1272260871.514637</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4547972853.476539</v>
+        <v>3912709085.580144</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1329762476244848</v>
+        <v>0.1148432817699422</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04273368548979223</v>
+        <v>0.05120077158404573</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>147</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2273986533.870092</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3857281449.560679</v>
+        <v>4270809192.857949</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1440650882202823</v>
+        <v>0.1606110532726559</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02688843009428915</v>
+        <v>0.03212345751205702</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>119</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1928640693.439746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1758907472.181782</v>
+        <v>1655141622.493672</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1182191248437455</v>
+        <v>0.142706500776369</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04415150783658714</v>
+        <v>0.04782759295436933</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>879453740.0207425</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3810134621.262393</v>
+        <v>3558923129.644945</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1797080493949535</v>
+        <v>0.1601147834122906</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01669804470124914</v>
+        <v>0.01905965945054149</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>143</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1905067383.075713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1246704495.435916</v>
+        <v>1775602921.923938</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1643751910507796</v>
+        <v>0.1399325306230116</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03840861506140471</v>
+        <v>0.03045232195148433</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>623352301.9810961</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4699686350.702952</v>
+        <v>4005852200.924201</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07945932298899616</v>
+        <v>0.08712895820591671</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03705438780468719</v>
+        <v>0.04666824640040111</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>127</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2349843117.578359</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2992053462.589666</v>
+        <v>2468839078.615192</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1761510294553565</v>
+        <v>0.1804276901607422</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03334260818438049</v>
+        <v>0.03102528900944855</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>143</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1496026800.833451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2683843615.77342</v>
+        <v>3307069839.21559</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1378372617503157</v>
+        <v>0.1242275063592489</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02315794171549049</v>
+        <v>0.0307391236697866</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>156</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1341921818.185509</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1896171445.882164</v>
+        <v>1387787094.65435</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1667823203023134</v>
+        <v>0.14122881667935</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03316111981806377</v>
+        <v>0.03714861601723951</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>948085765.4498721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5147902166.000719</v>
+        <v>4290980293.58758</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06859234050471209</v>
+        <v>0.06735294838232918</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02951426207672083</v>
+        <v>0.04522953396979423</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>130</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2573951094.185905</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5070054854.167462</v>
+        <v>4681986194.967757</v>
       </c>
       <c r="F64" t="n">
-        <v>0.132221073769219</v>
+        <v>0.1643929667370792</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03099493448932616</v>
+        <v>0.02416276092939013</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>141</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2535027538.232881</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5153644957.022063</v>
+        <v>3810428718.447788</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1260387757475477</v>
+        <v>0.1564282233071369</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02405925495455657</v>
+        <v>0.02285172480705062</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>162</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2576822428.259676</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4790204800.047103</v>
+        <v>3630781940.31569</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1262860660753675</v>
+        <v>0.1619913231879678</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05107681332128714</v>
+        <v>0.03653640189221633</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>133</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2395102415.933384</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2815025680.103121</v>
+        <v>2530204392.605031</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06339602568742961</v>
+        <v>0.1004115686455792</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03356929877539377</v>
+        <v>0.03483419707796168</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>144</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1407512873.99947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5837055287.842303</v>
+        <v>5593043299.349416</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1568406697220601</v>
+        <v>0.1519527349049024</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05180385185101332</v>
+        <v>0.0391073338442428</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>146</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2918527751.066374</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2330506956.593253</v>
+        <v>1665496875.973399</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1498729917548298</v>
+        <v>0.1223919073640143</v>
       </c>
       <c r="G69" t="n">
-        <v>0.041810640763639</v>
+        <v>0.04907605631887927</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1165253526.005428</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2503336045.956489</v>
+        <v>2800939025.357295</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06502294232316233</v>
+        <v>0.06431755813608207</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04662238285706896</v>
+        <v>0.04486580079361616</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>129</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1251667967.64346</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5369482827.962798</v>
+        <v>4789555653.145313</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1524789379601483</v>
+        <v>0.142718707371671</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03281293205751402</v>
+        <v>0.02971938108587049</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>164</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2684741547.292013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1928780997.690634</v>
+        <v>1642983821.42224</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07808523104899294</v>
+        <v>0.07833310340211533</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03747742212484422</v>
+        <v>0.04311255932350771</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>964390456.6925015</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3176458985.15053</v>
+        <v>2668847786.347954</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1024469945980725</v>
+        <v>0.09568032365782944</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04037015662282279</v>
+        <v>0.0435079725699698</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>171</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1588229472.396952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2911245541.121775</v>
+        <v>3837002355.388909</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1765651763853013</v>
+        <v>0.1436848916211372</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0270460018944487</v>
+        <v>0.02818245404789662</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>154</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1455622843.665567</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2252155121.628383</v>
+        <v>2088016496.292072</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1166553146533294</v>
+        <v>0.1112348699233384</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03356654438690655</v>
+        <v>0.023714634965628</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1126077501.444576</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4855824055.932688</v>
+        <v>3682782989.1237</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08487183127084551</v>
+        <v>0.09591990029506844</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02451784232824052</v>
+        <v>0.02864664530432865</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2427912048.589197</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1391043678.277987</v>
+        <v>2168747253.561901</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1641483577356876</v>
+        <v>0.1509311682174613</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01933760627602401</v>
+        <v>0.02122974918962202</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>695521810.7118983</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3516965888.691482</v>
+        <v>3315468176.039004</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08665750938757891</v>
+        <v>0.1193208032797304</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05205052658836455</v>
+        <v>0.03849550524711844</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>157</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1758482944.671706</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1574469520.23549</v>
+        <v>1406096823.531568</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1201625772427093</v>
+        <v>0.1310487700994029</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03350692931859407</v>
+        <v>0.02517598166111289</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>787234807.3815559</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4639338825.229343</v>
+        <v>5605952494.264934</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1112849364618613</v>
+        <v>0.08521228892639232</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03665844401145449</v>
+        <v>0.02932393011058249</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>95</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2319669443.88817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4830720678.547284</v>
+        <v>3658316639.810708</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1112252164753437</v>
+        <v>0.09647712347549742</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03189657678699739</v>
+        <v>0.03213860330122852</v>
       </c>
       <c r="H81" t="b">
         <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>101</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2415360333.354893</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4345395478.758396</v>
+        <v>5238191522.446974</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1933605009713013</v>
+        <v>0.192084903665951</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01794805275318495</v>
+        <v>0.02860905808224249</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>158</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2172697759.886362</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2353335222.274877</v>
+        <v>1676689036.670823</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1142083207308161</v>
+        <v>0.100705120568952</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04471022471963958</v>
+        <v>0.04405487977399106</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1176667640.472928</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1948825123.146515</v>
+        <v>2367791569.100215</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08798820433802187</v>
+        <v>0.1094061730542801</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03496470850763186</v>
+        <v>0.03206897274418496</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6</v>
-      </c>
-      <c r="J84" t="n">
-        <v>974412574.0792978</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2584826407.331594</v>
+        <v>2554029208.480886</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1368924394147312</v>
+        <v>0.1135537926387657</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04034043704255472</v>
+        <v>0.03965741660215862</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>169</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1292413218.028271</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2216263010.195898</v>
+        <v>1952826034.317221</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1177747621126337</v>
+        <v>0.1224839261700141</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02203778588297609</v>
+        <v>0.01934623311335138</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>56</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1108131562.80753</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1212988224.570839</v>
+        <v>1026843961.37646</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1716910679113377</v>
+        <v>0.130388352672949</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02962215303130931</v>
+        <v>0.04003954148722263</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>606494171.2214378</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3587044359.566033</v>
+        <v>2716632760.380464</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1701985060785543</v>
+        <v>0.1381286362577671</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0251234119706257</v>
+        <v>0.03018277270110971</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>179</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1793522268.262867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3495391484.593602</v>
+        <v>3441284451.846367</v>
       </c>
       <c r="F89" t="n">
-        <v>0.100022758583717</v>
+        <v>0.1367580342321575</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03798143430587712</v>
+        <v>0.04041117413066547</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>153</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1747695744.105183</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2065048741.62925</v>
+        <v>1446561407.050474</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1244276049884909</v>
+        <v>0.107976853691061</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03713650747249552</v>
+        <v>0.05631070020607132</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1032524452.956374</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1414901681.429627</v>
+        <v>1268032219.588755</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1579533603366036</v>
+        <v>0.1476976168158919</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0584276986937497</v>
+        <v>0.05161696675343332</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>707450890.9960164</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2248340989.296495</v>
+        <v>2562354944.317746</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06723767321552153</v>
+        <v>0.0679230557836444</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04509757195215836</v>
+        <v>0.04186418969358429</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>124</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1124170459.615018</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4886588273.467959</v>
+        <v>3786066472.654638</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0905457105707356</v>
+        <v>0.09653083383886236</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05396683730499371</v>
+        <v>0.04611868240636063</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>135</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2443294080.020459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2365675702.633918</v>
+        <v>1667986217.945764</v>
       </c>
       <c r="F94" t="n">
-        <v>0.147532318637138</v>
+        <v>0.1598963105402156</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02992068322248691</v>
+        <v>0.03723871442324319</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1182837897.253721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2183566716.260671</v>
+        <v>2367120989.827258</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08933791166290972</v>
+        <v>0.09761982395073605</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03426419763586802</v>
+        <v>0.04588529316465182</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>108</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1091783417.236699</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2022394827.48103</v>
+        <v>1841874651.485118</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1112570831237286</v>
+        <v>0.123290635332342</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04100713947231751</v>
+        <v>0.03796796619782464</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1011197398.337429</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4970007043.71455</v>
+        <v>4913886922.353767</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1634331491145748</v>
+        <v>0.1280695355366845</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01947382917528659</v>
+        <v>0.01799892887670522</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>145</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2485003656.261197</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2986972640.874254</v>
+        <v>2388113071.245049</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09139131769417477</v>
+        <v>0.08316527885285567</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02961951920687985</v>
+        <v>0.02345241335965969</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>121</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1493486304.300384</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2715419796.440211</v>
+        <v>2570488630.648002</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09665367607260565</v>
+        <v>0.1267671886363637</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02177267775872894</v>
+        <v>0.03259755240309509</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>142</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1357709863.555764</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3787889249.303284</v>
+        <v>3898809178.794758</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1443427448302538</v>
+        <v>0.1096965133989277</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02100341900103493</v>
+        <v>0.02344394488187834</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>138</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1893944678.411009</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2778392935.693991</v>
+        <v>3374063886.706369</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1866790673200524</v>
+        <v>0.2189761517810001</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04090371839205676</v>
+        <v>0.0511032628208734</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>185</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1389196527.623215</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_451.xlsx
+++ b/output/fit_clients/fit_round_451.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2160964926.800135</v>
+        <v>1551605003.998403</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09670888367947231</v>
+        <v>0.08023576698701078</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03685325835155005</v>
+        <v>0.03558149340379044</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2396280174.801122</v>
+        <v>2187309177.411788</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1681364062922328</v>
+        <v>0.138950157880514</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04126679428976394</v>
+        <v>0.03971175221922822</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4662926573.022843</v>
+        <v>4189960153.736622</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1281268764303956</v>
+        <v>0.1444693584821982</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02470923008113712</v>
+        <v>0.02630167832782924</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3473310085.325522</v>
+        <v>3543389573.924861</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09046884040341742</v>
+        <v>0.08846302417947452</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04816479022920758</v>
+        <v>0.04897002065935038</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2581772793.384965</v>
+        <v>2502344314.995895</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09849100871086044</v>
+        <v>0.1325166072166627</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04889956709107867</v>
+        <v>0.04635227227093518</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2809521373.267323</v>
+        <v>2348473928.080739</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08684667869194165</v>
+        <v>0.06501101722844481</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04103754323637079</v>
+        <v>0.02984213282740208</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3420424432.503129</v>
+        <v>2715815037.495566</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1668889778216967</v>
+        <v>0.1636009919457566</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02630169288839613</v>
+        <v>0.02702750360796855</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1945730875.157758</v>
+        <v>2049572496.997481</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1655918487089745</v>
+        <v>0.1700665665868802</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02346475360388294</v>
+        <v>0.03083697151320439</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5783852322.463897</v>
+        <v>5713785450.48172</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1336436574935198</v>
+        <v>0.1893508253484373</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03519450530965978</v>
+        <v>0.04236696025751183</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3767078502.200703</v>
+        <v>2972236786.599452</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1783419962018071</v>
+        <v>0.1237304817940521</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03272303862564029</v>
+        <v>0.03276031816147751</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3220179799.163757</v>
+        <v>2129826155.101763</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1286461417403054</v>
+        <v>0.1805356402734301</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04677384590745624</v>
+        <v>0.04545443442341731</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3570283559.193235</v>
+        <v>3754778116.602352</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08363524986440844</v>
+        <v>0.06540957080672986</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03061335326963083</v>
+        <v>0.02616394643338761</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2838626834.133151</v>
+        <v>2815262388.232209</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1776508155227142</v>
+        <v>0.1657270096740177</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03254554567892699</v>
+        <v>0.03212788616490646</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1703180431.981783</v>
+        <v>1696471628.554078</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09843709129238348</v>
+        <v>0.06900346076166942</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03178834709262245</v>
+        <v>0.03485839373776197</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1761543387.3378</v>
+        <v>1878695754.790404</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07942091403551445</v>
+        <v>0.1018035011689249</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04474351416354984</v>
+        <v>0.03803989055997977</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3311475944.273213</v>
+        <v>3491223673.996155</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1330431901653078</v>
+        <v>0.1336893050514989</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03624096569842726</v>
+        <v>0.03957559240052477</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2774037620.831587</v>
+        <v>3942645031.57399</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1549261053558051</v>
+        <v>0.1383600678595166</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02142951185374016</v>
+        <v>0.03287667288659957</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>894973404.8059729</v>
+        <v>1337295361.501562</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1864109600377185</v>
+        <v>0.1515063242352335</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01871940760743963</v>
+        <v>0.02163603285721264</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2172879052.576828</v>
+        <v>2595840789.877456</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1082059664816539</v>
+        <v>0.1242556816136642</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03001712354096858</v>
+        <v>0.03076802879200738</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2516213439.453166</v>
+        <v>1754344182.662472</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06219796072996</v>
+        <v>0.06360686372148264</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02804396601511772</v>
+        <v>0.0294188609299077</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3141805729.320466</v>
+        <v>3610552799.084382</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1177235446461027</v>
+        <v>0.1183078759972515</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03761743566738138</v>
+        <v>0.03835607607513572</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1009994493.305482</v>
+        <v>950386591.3852042</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1800615457500627</v>
+        <v>0.132274738881363</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04672143691383498</v>
+        <v>0.04682055937762282</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3800516215.681139</v>
+        <v>2521753864.927318</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1203065432045776</v>
+        <v>0.1185088347150917</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02483916135829788</v>
+        <v>0.02357992933188996</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>905138458.7005206</v>
+        <v>1090139617.603113</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09366889280141165</v>
+        <v>0.07530175955854487</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02217744857528546</v>
+        <v>0.0268458752992754</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1364646934.788325</v>
+        <v>1439257704.563802</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09443254437015082</v>
+        <v>0.1129808093176744</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03481578660980991</v>
+        <v>0.02559577165754508</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3313869868.925075</v>
+        <v>3643416559.261662</v>
       </c>
       <c r="F27" t="n">
-        <v>0.139961115401918</v>
+        <v>0.1463602548203855</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02607296435431879</v>
+        <v>0.02409754444330291</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2844596997.068215</v>
+        <v>3463105503.356581</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09823585841662222</v>
+        <v>0.1179492528226286</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03424313317859735</v>
+        <v>0.03552799907868696</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4416154886.123217</v>
+        <v>5307043197.728549</v>
       </c>
       <c r="F29" t="n">
-        <v>0.133582447702553</v>
+        <v>0.1258529102450991</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03236511458325014</v>
+        <v>0.04077634522842871</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1501966467.660342</v>
+        <v>2123268083.190794</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1196696863218705</v>
+        <v>0.08737042332383672</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02967110131115085</v>
+        <v>0.03623395175809982</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1417360158.564169</v>
+        <v>1502964839.117072</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08026789933630962</v>
+        <v>0.08394606164090319</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04112374510595355</v>
+        <v>0.03880216982650146</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1773808042.245808</v>
+        <v>1770951988.824379</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1062894943940564</v>
+        <v>0.1129029014673379</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0238096616255909</v>
+        <v>0.03489500081665457</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2540655682.719917</v>
+        <v>2158624770.904749</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1954057068360684</v>
+        <v>0.1646571467108702</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05768997274847427</v>
+        <v>0.05894558425709218</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1576249179.761511</v>
+        <v>1323536812.159312</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07376909082924522</v>
+        <v>0.1138492575817081</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02007422709935696</v>
+        <v>0.02654996926520979</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>837878737.8826376</v>
+        <v>999426609.259811</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08454989003297356</v>
+        <v>0.11057148017303</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03228244806994442</v>
+        <v>0.0410954488063586</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2403219864.560712</v>
+        <v>2673417773.628783</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1245264544328632</v>
+        <v>0.1478028292120463</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02226894744080822</v>
+        <v>0.02776987935400097</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2870788498.711085</v>
+        <v>2442609366.354508</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08277978328753091</v>
+        <v>0.07959913619358031</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03742903979350373</v>
+        <v>0.02740495291843183</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2117869734.55469</v>
+        <v>1783684277.427521</v>
       </c>
       <c r="F38" t="n">
-        <v>0.105720503167191</v>
+        <v>0.09701321313981595</v>
       </c>
       <c r="G38" t="n">
-        <v>0.031313142103427</v>
+        <v>0.0345257973742757</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1872320002.181487</v>
+        <v>1956071391.832179</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1353476369023465</v>
+        <v>0.159616015229786</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02646932845618593</v>
+        <v>0.03276636276191924</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1394292772.771993</v>
+        <v>1473999141.591328</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1253750802367385</v>
+        <v>0.1564613087920351</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05621968987142525</v>
+        <v>0.03655783628715979</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2886467669.013866</v>
+        <v>2891844621.904412</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1502838977125915</v>
+        <v>0.1065447162204311</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03444004056525643</v>
+        <v>0.04506273420351006</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4240698173.617981</v>
+        <v>4304862359.517358</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1100074527512388</v>
+        <v>0.07815525183796762</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03586139955025722</v>
+        <v>0.03308587633371889</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2297484825.237406</v>
+        <v>2947773045.866161</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1432320869840639</v>
+        <v>0.13059844357061</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02372957785662505</v>
+        <v>0.02466198323163199</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2346205792.865369</v>
+        <v>1970843813.578305</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09629092769582379</v>
+        <v>0.09343746676280308</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02822937742336357</v>
+        <v>0.03678272567053697</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2012465411.891639</v>
+        <v>2532018121.115343</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1866979891998685</v>
+        <v>0.1776831532397751</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05057095420112602</v>
+        <v>0.03938445087076193</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5498228050.199466</v>
+        <v>3925120578.749749</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1780734499022247</v>
+        <v>0.1478537022310618</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04026155656058612</v>
+        <v>0.05339675391811738</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,13 +1746,13 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3801614183.284923</v>
+        <v>5086890821.632059</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1723995935937712</v>
+        <v>0.1937032588878932</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05449408490273523</v>
+        <v>0.0393304094140151</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4287421491.889482</v>
+        <v>4613086856.343083</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07831007442766273</v>
+        <v>0.1093286819568114</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03808919557428656</v>
+        <v>0.03538126114997027</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1578210656.83092</v>
+        <v>1729955571.038131</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1289218199332091</v>
+        <v>0.1504825185320757</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02913235008458916</v>
+        <v>0.0344163619532389</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3609706972.561888</v>
+        <v>4148511646.664533</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1110760379051883</v>
+        <v>0.167940681974258</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03848463705599019</v>
+        <v>0.04149017830751181</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1489427714.31364</v>
+        <v>966277459.6933032</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1640825653778606</v>
+        <v>0.1829968218569863</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05362620166367901</v>
+        <v>0.04362826553061592</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3785230230.676002</v>
+        <v>4430997661.717998</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1365890008401792</v>
+        <v>0.1145839190250788</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04553671366236942</v>
+        <v>0.04470461849642877</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2734708899.951118</v>
+        <v>2871524647.028155</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1826419814690644</v>
+        <v>0.1495339119857618</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03289492161333017</v>
+        <v>0.03444018774508868</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3912709085.580144</v>
+        <v>3867274271.895148</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1148432817699422</v>
+        <v>0.1560337785048896</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05120077158404573</v>
+        <v>0.03847267793920674</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4270809192.857949</v>
+        <v>3291797910.423445</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1606110532726559</v>
+        <v>0.1406192209374459</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03212345751205702</v>
+        <v>0.03127964012181701</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1655141622.493672</v>
+        <v>1507892643.339511</v>
       </c>
       <c r="F56" t="n">
-        <v>0.142706500776369</v>
+        <v>0.1113989630861438</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04782759295436933</v>
+        <v>0.04507426554843478</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3558923129.644945</v>
+        <v>2869747321.885814</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1601147834122906</v>
+        <v>0.1753871981757518</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01905965945054149</v>
+        <v>0.02070202798955374</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1775602921.923938</v>
+        <v>1436001960.397253</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1399325306230116</v>
+        <v>0.1776029707137602</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03045232195148433</v>
+        <v>0.03467686896214457</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4005852200.924201</v>
+        <v>4927026337.683559</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08712895820591671</v>
+        <v>0.1145723700660741</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04666824640040111</v>
+        <v>0.04487869069940967</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2468839078.615192</v>
+        <v>2929792080.442372</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1804276901607422</v>
+        <v>0.1253943736961171</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03102528900944855</v>
+        <v>0.03221411151905442</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3307069839.21559</v>
+        <v>2894041579.914203</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1242275063592489</v>
+        <v>0.1426803060947992</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0307391236697866</v>
+        <v>0.03271052119724611</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1387787094.65435</v>
+        <v>1344455279.500296</v>
       </c>
       <c r="F62" t="n">
-        <v>0.14122881667935</v>
+        <v>0.133760760437213</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03714861601723951</v>
+        <v>0.0419678054190598</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4290980293.58758</v>
+        <v>4393609999.128257</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06735294838232918</v>
+        <v>0.07201456750170472</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04522953396979423</v>
+        <v>0.0300937328840487</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,13 +2222,13 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4681986194.967757</v>
+        <v>4196100774.167909</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1643929667370792</v>
+        <v>0.1295502494270494</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02416276092939013</v>
+        <v>0.02727953372584491</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3810428718.447788</v>
+        <v>3764521545.553751</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1564282233071369</v>
+        <v>0.1406791992065982</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02285172480705062</v>
+        <v>0.0244844028162237</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3630781940.31569</v>
+        <v>4833163601.598151</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1619913231879678</v>
+        <v>0.1321401716280093</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03653640189221633</v>
+        <v>0.0372431352696315</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2530204392.605031</v>
+        <v>3157474149.213211</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1004115686455792</v>
+        <v>0.07297852281161853</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03483419707796168</v>
+        <v>0.04977181834933343</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5593043299.349416</v>
+        <v>5517754280.214359</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1519527349049024</v>
+        <v>0.1239540990746231</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0391073338442428</v>
+        <v>0.03361031138562658</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1665496875.973399</v>
+        <v>2372463691.311672</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1223919073640143</v>
+        <v>0.1117455113614847</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04907605631887927</v>
+        <v>0.03991233071152742</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2800939025.357295</v>
+        <v>3332774220.357001</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06431755813608207</v>
+        <v>0.09297165212878686</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04486580079361616</v>
+        <v>0.03140023360315267</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4789555653.145313</v>
+        <v>5134148810.29776</v>
       </c>
       <c r="F71" t="n">
-        <v>0.142718707371671</v>
+        <v>0.1196104954717652</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02971938108587049</v>
+        <v>0.02080277280340043</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1642983821.42224</v>
+        <v>2184609766.135997</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07833310340211533</v>
+        <v>0.08942615886379993</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04311255932350771</v>
+        <v>0.04788685525523752</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2668847786.347954</v>
+        <v>3050641790.306555</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09568032365782944</v>
+        <v>0.105226112921954</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0435079725699698</v>
+        <v>0.03866898547727625</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3837002355.388909</v>
+        <v>3757891537.479165</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1436848916211372</v>
+        <v>0.1769861668731952</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02818245404789662</v>
+        <v>0.0250671228305958</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2088016496.292072</v>
+        <v>1871258153.111596</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1112348699233384</v>
+        <v>0.1238516864388857</v>
       </c>
       <c r="G75" t="n">
-        <v>0.023714634965628</v>
+        <v>0.02777279977192986</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3682782989.1237</v>
+        <v>4401225640.112435</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09591990029506844</v>
+        <v>0.08195325489018215</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02864664530432865</v>
+        <v>0.0287671622072504</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2168747253.561901</v>
+        <v>1828616054.915673</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1509311682174613</v>
+        <v>0.1327294406973735</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02122974918962202</v>
+        <v>0.0217782862946733</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3315468176.039004</v>
+        <v>4137844886.357062</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1193208032797304</v>
+        <v>0.1367048995068619</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03849550524711844</v>
+        <v>0.0418063131623395</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1406096823.531568</v>
+        <v>1323900069.351491</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1310487700994029</v>
+        <v>0.1615482242648034</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02517598166111289</v>
+        <v>0.03414601580733663</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5605952494.264934</v>
+        <v>5052401410.859837</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08521228892639232</v>
+        <v>0.0955934603843913</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02932393011058249</v>
+        <v>0.02535148987141166</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,16 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3658316639.810708</v>
+        <v>3241136573.349247</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09647712347549742</v>
+        <v>0.08763142358702673</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03213860330122852</v>
+        <v>0.02750414264766723</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5238191522.446974</v>
+        <v>3496427299.815824</v>
       </c>
       <c r="F82" t="n">
-        <v>0.192084903665951</v>
+        <v>0.1723116787714315</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02860905808224249</v>
+        <v>0.02005525379551813</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1676689036.670823</v>
+        <v>1507444570.567595</v>
       </c>
       <c r="F83" t="n">
-        <v>0.100705120568952</v>
+        <v>0.1571475373033572</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04405487977399106</v>
+        <v>0.04472986123933174</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2367791569.100215</v>
+        <v>2451643013.296468</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1094061730542801</v>
+        <v>0.1113893936080603</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03206897274418496</v>
+        <v>0.03491474569129597</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2554029208.480886</v>
+        <v>2412840667.853916</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1135537926387657</v>
+        <v>0.1169612422791426</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03965741660215862</v>
+        <v>0.04580931927295958</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1952826034.317221</v>
+        <v>2684937782.063453</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1224839261700141</v>
+        <v>0.1662213389965039</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01934623311335138</v>
+        <v>0.02242111158045071</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1026843961.37646</v>
+        <v>1320472028.335591</v>
       </c>
       <c r="F87" t="n">
-        <v>0.130388352672949</v>
+        <v>0.1535834257427489</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04003954148722263</v>
+        <v>0.04314994795796127</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2716632760.380464</v>
+        <v>2753348164.859</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1381286362577671</v>
+        <v>0.1593464641466728</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03018277270110971</v>
+        <v>0.0246785887984208</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3441284451.846367</v>
+        <v>2793094815.039366</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1367580342321575</v>
+        <v>0.1259714511817403</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04041117413066547</v>
+        <v>0.03258341761011121</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1446561407.050474</v>
+        <v>1709452900.184014</v>
       </c>
       <c r="F90" t="n">
-        <v>0.107976853691061</v>
+        <v>0.1241295109047894</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05631070020607132</v>
+        <v>0.05559232090018396</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1268032219.588755</v>
+        <v>1722703102.506167</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1476976168158919</v>
+        <v>0.1774425036538164</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05161696675343332</v>
+        <v>0.05560331214594744</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2562354944.317746</v>
+        <v>2443554247.358119</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0679230557836444</v>
+        <v>0.09743265818286247</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04186418969358429</v>
+        <v>0.04654909861540741</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3786066472.654638</v>
+        <v>5014686801.975627</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09653083383886236</v>
+        <v>0.13811298777554</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04611868240636063</v>
+        <v>0.04692006365752345</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1667986217.945764</v>
+        <v>2478284701.426857</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1598963105402156</v>
+        <v>0.1092872189470026</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03723871442324319</v>
+        <v>0.0266811912735561</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2367120989.827258</v>
+        <v>2509648505.652078</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09761982395073605</v>
+        <v>0.1027322546917802</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04588529316465182</v>
+        <v>0.04801647299692252</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1841874651.485118</v>
+        <v>2219038907.837313</v>
       </c>
       <c r="F96" t="n">
-        <v>0.123290635332342</v>
+        <v>0.130575292199447</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03796796619782464</v>
+        <v>0.02879857981807861</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4913886922.353767</v>
+        <v>3363486662.912468</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1280695355366845</v>
+        <v>0.1655492041711455</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01799892887670522</v>
+        <v>0.02580127215405219</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2388113071.245049</v>
+        <v>2873244621.75728</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08316527885285567</v>
+        <v>0.08730712832870607</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02345241335965969</v>
+        <v>0.03271097526008417</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2570488630.648002</v>
+        <v>3334129681.108004</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1267671886363637</v>
+        <v>0.09194645930884125</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03259755240309509</v>
+        <v>0.02614411958144751</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3898809178.794758</v>
+        <v>3462962213.693688</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1096965133989277</v>
+        <v>0.1229469100918965</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02344394488187834</v>
+        <v>0.01907578111483765</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3374063886.706369</v>
+        <v>2999062432.666721</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2189761517810001</v>
+        <v>0.1789750632307198</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0511032628208734</v>
+        <v>0.04395223329986095</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_451.xlsx
+++ b/output/fit_clients/fit_round_451.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1551605003.998403</v>
+        <v>2058877345.488856</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08023576698701078</v>
+        <v>0.1014407022626639</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03558149340379044</v>
+        <v>0.04223563109799104</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2187309177.411788</v>
+        <v>2341853043.469177</v>
       </c>
       <c r="F3" t="n">
-        <v>0.138950157880514</v>
+        <v>0.1402718637548519</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03971175221922822</v>
+        <v>0.04594630165252719</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4189960153.736622</v>
+        <v>4483243197.292725</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1444693584821982</v>
+        <v>0.1601069230238254</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02630167832782924</v>
+        <v>0.02701633206041726</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>228</v>
+      </c>
+      <c r="J4" t="n">
+        <v>451</v>
+      </c>
+      <c r="K4" t="n">
+        <v>36.5641281903133</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3543389573.924861</v>
+        <v>3960310006.185722</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08846302417947452</v>
+        <v>0.09912085298225007</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04897002065935038</v>
+        <v>0.047633324230016</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>189</v>
+      </c>
+      <c r="J5" t="n">
+        <v>451</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2502344314.995895</v>
+        <v>2310782704.784917</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1325166072166627</v>
+        <v>0.09442008666675944</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04635227227093518</v>
+        <v>0.04853778727833553</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2348473928.080739</v>
+        <v>2781606766.881675</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06501101722844481</v>
+        <v>0.07027942760763141</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02984213282740208</v>
+        <v>0.04912815854723188</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2715815037.495566</v>
+        <v>3604419229.058977</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1636009919457566</v>
+        <v>0.2125978634910835</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02702750360796855</v>
+        <v>0.02842222312655465</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>125</v>
+      </c>
+      <c r="J8" t="n">
+        <v>451</v>
+      </c>
+      <c r="K8" t="n">
+        <v>42.39489306049006</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2049572496.997481</v>
+        <v>1421251703.085608</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1700665665868802</v>
+        <v>0.1252020276344099</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03083697151320439</v>
+        <v>0.02839763995261183</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +779,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5713785450.48172</v>
+        <v>5732565634.293985</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1893508253484373</v>
+        <v>0.2033311217296221</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04236696025751183</v>
+        <v>0.04569988947049988</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>350</v>
+      </c>
+      <c r="J10" t="n">
+        <v>451</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -738,16 +820,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2972236786.599452</v>
+        <v>3443808559.505251</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1237304817940521</v>
+        <v>0.1654140641230984</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03276031816147751</v>
+        <v>0.03200436063754208</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>188</v>
+      </c>
+      <c r="J11" t="n">
+        <v>450</v>
+      </c>
+      <c r="K11" t="n">
+        <v>33.00370907048148</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2129826155.101763</v>
+        <v>2780568036.371755</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1805356402734301</v>
+        <v>0.1404498732499788</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04545443442341731</v>
+        <v>0.04222805232380443</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3754778116.602352</v>
+        <v>4304483290.582649</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06540957080672986</v>
+        <v>0.06656985857429799</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02616394643338761</v>
+        <v>0.02862120156339006</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>234</v>
+      </c>
+      <c r="J13" t="n">
+        <v>450</v>
+      </c>
+      <c r="K13" t="n">
+        <v>34.39189173057117</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2815262388.232209</v>
+        <v>3681004062.730627</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1657270096740177</v>
+        <v>0.1779190903782089</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03212788616490646</v>
+        <v>0.04407312349725197</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>98</v>
+      </c>
+      <c r="J14" t="n">
+        <v>444</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1696471628.554078</v>
+        <v>1584813949.503079</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06900346076166942</v>
+        <v>0.1012605864521331</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03485839373776197</v>
+        <v>0.0358105445930731</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1878695754.790404</v>
+        <v>2649229547.755197</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1018035011689249</v>
+        <v>0.09454527633116044</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03803989055997977</v>
+        <v>0.04438985286419078</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3491223673.996155</v>
+        <v>4170170664.926416</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1336893050514989</v>
+        <v>0.1514034769691955</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03957559240052477</v>
+        <v>0.03864242226392531</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>219</v>
+      </c>
+      <c r="J17" t="n">
+        <v>451</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3942645031.57399</v>
+        <v>3738944586.995722</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1383600678595166</v>
+        <v>0.1190901315207387</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03287667288659957</v>
+        <v>0.02620897467927559</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>120</v>
+      </c>
+      <c r="J18" t="n">
+        <v>451</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1337295361.501562</v>
+        <v>1046199838.143932</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1515063242352335</v>
+        <v>0.1655034785235056</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02163603285721264</v>
+        <v>0.02075039015832673</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2595840789.877456</v>
+        <v>1763466435.424679</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1242556816136642</v>
+        <v>0.1187754407639542</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03076802879200738</v>
+        <v>0.02188265683542022</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1754344182.662472</v>
+        <v>2492538170.867001</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06360686372148264</v>
+        <v>0.06314099958375087</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0294188609299077</v>
+        <v>0.03136137349645216</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1209,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3610552799.084382</v>
+        <v>3641771094.808234</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1183078759972515</v>
+        <v>0.09320138447224037</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03835607607513572</v>
+        <v>0.03486605328324786</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>131</v>
+      </c>
+      <c r="J22" t="n">
+        <v>449</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>950386591.3852042</v>
+        <v>1489547548.50286</v>
       </c>
       <c r="F23" t="n">
-        <v>0.132274738881363</v>
+        <v>0.1620719852704689</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04682055937762282</v>
+        <v>0.03577719840742661</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1279,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2521753864.927318</v>
+        <v>3035996899.489047</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1185088347150917</v>
+        <v>0.1475514180716238</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02357992933188996</v>
+        <v>0.0275727075219311</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>143</v>
+      </c>
+      <c r="J24" t="n">
+        <v>450</v>
+      </c>
+      <c r="K24" t="n">
+        <v>26.17245525796529</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1090139617.603113</v>
+        <v>996900306.2278777</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07530175955854487</v>
+        <v>0.1083747430754223</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0268458752992754</v>
+        <v>0.01867509601786228</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1439257704.563802</v>
+        <v>1448371227.925132</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1129808093176744</v>
+        <v>0.08085047765781743</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02559577165754508</v>
+        <v>0.02604760107011045</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1386,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3643416559.261662</v>
+        <v>4580040611.393086</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1463602548203855</v>
+        <v>0.1355311958179819</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02409754444330291</v>
+        <v>0.02116504738235875</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>195</v>
+      </c>
+      <c r="J27" t="n">
+        <v>451</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3463105503.356581</v>
+        <v>3152890409.363503</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1179492528226286</v>
+        <v>0.1426992102634462</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03552799907868696</v>
+        <v>0.04737451301959158</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>108</v>
+      </c>
+      <c r="J28" t="n">
+        <v>437</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1450,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5307043197.728549</v>
+        <v>4389426155.438843</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1258529102450991</v>
+        <v>0.1095079693075927</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04077634522842871</v>
+        <v>0.03068005749032873</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>366</v>
+      </c>
+      <c r="J29" t="n">
+        <v>451</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1270,17 +1491,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2123268083.190794</v>
+        <v>2315731769.897277</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08737042332383672</v>
+        <v>0.08990892872603605</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03623395175809982</v>
+        <v>0.02734162605656632</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1502964839.117072</v>
+        <v>1413475371.430775</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08394606164090319</v>
+        <v>0.1024493746889515</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03880216982650146</v>
+        <v>0.05155048603147017</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1770951988.824379</v>
+        <v>1728846765.041513</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1129029014673379</v>
+        <v>0.1044186789986236</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03489500081665457</v>
+        <v>0.02341198017148956</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2158624770.904749</v>
+        <v>3021703516.954184</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1646571467108702</v>
+        <v>0.1320549523649348</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05894558425709218</v>
+        <v>0.05798431889712938</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1323536812.159312</v>
+        <v>1028502564.82941</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1138492575817081</v>
+        <v>0.1026580200608239</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02654996926520979</v>
+        <v>0.02759101097393559</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>999426609.259811</v>
+        <v>1207437926.105451</v>
       </c>
       <c r="F35" t="n">
-        <v>0.11057148017303</v>
+        <v>0.07307162141845588</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0410954488063586</v>
+        <v>0.03151237531342672</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2673417773.628783</v>
+        <v>2114679698.825847</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1478028292120463</v>
+        <v>0.1713894862339183</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02776987935400097</v>
+        <v>0.02408330846763597</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2442609366.354508</v>
+        <v>2872353200.193717</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07959913619358031</v>
+        <v>0.09862716679925497</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02740495291843183</v>
+        <v>0.03421782183613415</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1771,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1783684277.427521</v>
+        <v>1978983341.920665</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09701321313981595</v>
+        <v>0.09233931980713528</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0345257973742757</v>
+        <v>0.0309604479948941</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1956071391.832179</v>
+        <v>1608133053.00494</v>
       </c>
       <c r="F39" t="n">
-        <v>0.159616015229786</v>
+        <v>0.1910236860946554</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03276636276191924</v>
+        <v>0.03236921873861483</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1473999141.591328</v>
+        <v>1231073288.435704</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1564613087920351</v>
+        <v>0.1183604556220433</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03655783628715979</v>
+        <v>0.05823965564741367</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2891844621.904412</v>
+        <v>1937956957.187622</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1065447162204311</v>
+        <v>0.138091476115518</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04506273420351006</v>
+        <v>0.03008447620532748</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4304862359.517358</v>
+        <v>3795918788.680314</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07815525183796762</v>
+        <v>0.1056107994058151</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03308587633371889</v>
+        <v>0.04620089267681721</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>197</v>
+      </c>
+      <c r="J42" t="n">
+        <v>451</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2947773045.866161</v>
+        <v>1913745622.734526</v>
       </c>
       <c r="F43" t="n">
-        <v>0.13059844357061</v>
+        <v>0.1987090241587541</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02466198323163199</v>
+        <v>0.0245984756307937</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1970843813.578305</v>
+        <v>1605968087.85882</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09343746676280308</v>
+        <v>0.09786057489334837</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03678272567053697</v>
+        <v>0.02509135667622044</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2532018121.115343</v>
+        <v>2132489034.721292</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1776831532397751</v>
+        <v>0.167556359974221</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03938445087076193</v>
+        <v>0.03652611859340759</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2045,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3925120578.749749</v>
+        <v>3859993793.86076</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1478537022310618</v>
+        <v>0.1671807976392288</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05339675391811738</v>
+        <v>0.05103732146609368</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>268</v>
+      </c>
+      <c r="J46" t="n">
+        <v>450</v>
+      </c>
+      <c r="K46" t="n">
+        <v>34.76175859193273</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2088,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5086890821.632059</v>
+        <v>4027612307.295138</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1937032588878932</v>
+        <v>0.199503584479172</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0393304094140151</v>
+        <v>0.04161532777237916</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>203</v>
+      </c>
+      <c r="J47" t="n">
+        <v>451</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2117,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4613086856.343083</v>
+        <v>2865906026.929741</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1093286819568114</v>
+        <v>0.1098552894526139</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03538126114997027</v>
+        <v>0.03844104940287291</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>227</v>
+      </c>
+      <c r="J48" t="n">
+        <v>450</v>
+      </c>
+      <c r="K48" t="n">
+        <v>21.33407293213506</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1729955571.038131</v>
+        <v>1411795628.927149</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1504825185320757</v>
+        <v>0.1357671819843373</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0344163619532389</v>
+        <v>0.03850358719039386</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2195,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4148511646.664533</v>
+        <v>3836577529.785897</v>
       </c>
       <c r="F50" t="n">
-        <v>0.167940681974258</v>
+        <v>0.1318793936277748</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04149017830751181</v>
+        <v>0.04111149848519893</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>161</v>
+      </c>
+      <c r="J50" t="n">
+        <v>451</v>
+      </c>
+      <c r="K50" t="n">
+        <v>42.33100948784301</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>966277459.6933032</v>
+        <v>948553122.684092</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1829968218569863</v>
+        <v>0.1229376128595717</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04362826553061592</v>
+        <v>0.04500415778911191</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2267,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4430997661.717998</v>
+        <v>4875361363.169082</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1145839190250788</v>
+        <v>0.1110003997422655</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04470461849642877</v>
+        <v>0.04647904529341766</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>257</v>
+      </c>
+      <c r="J52" t="n">
+        <v>450</v>
+      </c>
+      <c r="K52" t="n">
+        <v>33.59586428407216</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2871524647.028155</v>
+        <v>2470933984.989917</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1495339119857618</v>
+        <v>0.1808641178107503</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03444018774508868</v>
+        <v>0.03258076181742838</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>68</v>
+      </c>
+      <c r="J53" t="n">
+        <v>446</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2339,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3867274271.895148</v>
+        <v>4000317713.24511</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1560337785048896</v>
+        <v>0.1600413738000407</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03847267793920674</v>
+        <v>0.05093564178787197</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>238</v>
+      </c>
+      <c r="J54" t="n">
+        <v>450</v>
+      </c>
+      <c r="K54" t="n">
+        <v>34.84839176405607</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3291797910.423445</v>
+        <v>3369370286.105652</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1406192209374459</v>
+        <v>0.1584500437918063</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03127964012181701</v>
+        <v>0.02236491883150117</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>224</v>
+      </c>
+      <c r="J55" t="n">
+        <v>450</v>
+      </c>
+      <c r="K55" t="n">
+        <v>27.1917032183689</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2413,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1507892643.339511</v>
+        <v>1150097352.284738</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1113989630861438</v>
+        <v>0.1327559275726989</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04507426554843478</v>
+        <v>0.04819270818345881</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2869747321.885814</v>
+        <v>3346230546.279286</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1753871981757518</v>
+        <v>0.1460571022804802</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02070202798955374</v>
+        <v>0.01759536783685416</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>195</v>
+      </c>
+      <c r="J57" t="n">
+        <v>447</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1436001960.397253</v>
+        <v>1749492740.674783</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1776029707137602</v>
+        <v>0.1445738525514367</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03467686896214457</v>
+        <v>0.03628944676505474</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4927026337.683559</v>
+        <v>3448972216.619898</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1145723700660741</v>
+        <v>0.1256634875690774</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04487869069940967</v>
+        <v>0.0454465486472394</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
       </c>
+      <c r="I59" t="n">
+        <v>220</v>
+      </c>
+      <c r="J59" t="n">
+        <v>449</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2929792080.442372</v>
+        <v>2890095816.135475</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1253943736961171</v>
+        <v>0.1709494484628585</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03221411151905442</v>
+        <v>0.02278997301206136</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>86</v>
+      </c>
+      <c r="J60" t="n">
+        <v>437</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2894041579.914203</v>
+        <v>2873672422.202465</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1426803060947992</v>
+        <v>0.1598817834366472</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03271052119724611</v>
+        <v>0.02415518082008792</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1344455279.500296</v>
+        <v>2072553256.282872</v>
       </c>
       <c r="F62" t="n">
-        <v>0.133760760437213</v>
+        <v>0.1234384746166841</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0419678054190598</v>
+        <v>0.03260443548309559</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4393609999.128257</v>
+        <v>3719477310.643768</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07201456750170472</v>
+        <v>0.07738205402969278</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0300937328840487</v>
+        <v>0.04451615708237488</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>225</v>
+      </c>
+      <c r="J63" t="n">
+        <v>451</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4196100774.167909</v>
+        <v>4381379103.267244</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1295502494270494</v>
+        <v>0.191253935087766</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02727953372584491</v>
+        <v>0.02919979778800307</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>226</v>
+      </c>
+      <c r="J64" t="n">
+        <v>450</v>
+      </c>
+      <c r="K64" t="n">
+        <v>33.38307503984244</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2730,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3764521545.553751</v>
+        <v>4227594498.496906</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1406791992065982</v>
+        <v>0.1452659746229224</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0244844028162237</v>
+        <v>0.02616693657179316</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>323</v>
+      </c>
+      <c r="J65" t="n">
+        <v>450</v>
+      </c>
+      <c r="K65" t="n">
+        <v>32.76501050670038</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2761,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4833163601.598151</v>
+        <v>4589693276.685935</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1321401716280093</v>
+        <v>0.1183052699536356</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0372431352696315</v>
+        <v>0.03887054045008354</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>222</v>
+      </c>
+      <c r="J66" t="n">
+        <v>451</v>
+      </c>
+      <c r="K66" t="n">
+        <v>35.94811213726538</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3157474149.213211</v>
+        <v>2634549240.451134</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07297852281161853</v>
+        <v>0.06214291001674338</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04977181834933343</v>
+        <v>0.03864330906832601</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2833,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5517754280.214359</v>
+        <v>4272859289.764748</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1239540990746231</v>
+        <v>0.1305581982119084</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03361031138562658</v>
+        <v>0.05171410085308497</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>245</v>
+      </c>
+      <c r="J68" t="n">
+        <v>451</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2372463691.311672</v>
+        <v>1881486407.222365</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1117455113614847</v>
+        <v>0.1711726511807263</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03991233071152742</v>
+        <v>0.05445123446360133</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2903,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3332774220.357001</v>
+        <v>2934282239.224442</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09297165212878686</v>
+        <v>0.072002691096721</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03140023360315267</v>
+        <v>0.04970457434155756</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>66</v>
+      </c>
+      <c r="J70" t="n">
+        <v>450</v>
+      </c>
+      <c r="K70" t="n">
+        <v>31.20270011849989</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5134148810.29776</v>
+        <v>5631292030.112404</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1196104954717652</v>
+        <v>0.168992320288345</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02080277280340043</v>
+        <v>0.03121114339125072</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>309</v>
+      </c>
+      <c r="J71" t="n">
+        <v>450</v>
+      </c>
+      <c r="K71" t="n">
+        <v>33.64921562923237</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2184609766.135997</v>
+        <v>1737014305.805296</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08942615886379993</v>
+        <v>0.1039930908269862</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04788685525523752</v>
+        <v>0.05295805226078171</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3050641790.306555</v>
+        <v>2594437088.881369</v>
       </c>
       <c r="F73" t="n">
-        <v>0.105226112921954</v>
+        <v>0.0841383465978949</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03866898547727625</v>
+        <v>0.04872641227050255</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>36</v>
+      </c>
+      <c r="J73" t="n">
+        <v>443</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3757891537.479165</v>
+        <v>3304401782.380311</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1769861668731952</v>
+        <v>0.1185863466049742</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0250671228305958</v>
+        <v>0.03140947265716582</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>129</v>
+      </c>
+      <c r="J74" t="n">
+        <v>447</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1871258153.111596</v>
+        <v>2186115634.254714</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1238516864388857</v>
+        <v>0.1139969304213908</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02777279977192986</v>
+        <v>0.02378489878730043</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3117,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4401225640.112435</v>
+        <v>5073932376.514872</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08195325489018215</v>
+        <v>0.111686536791614</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0287671622072504</v>
+        <v>0.02793006226242069</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>215</v>
+      </c>
+      <c r="J76" t="n">
+        <v>450</v>
+      </c>
+      <c r="K76" t="n">
+        <v>34.23446875822496</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1828616054.915673</v>
+        <v>1716903605.015436</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1327294406973735</v>
+        <v>0.1581485855054372</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0217782862946733</v>
+        <v>0.02636287040754087</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4137844886.357062</v>
+        <v>4022594062.285721</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1367048995068619</v>
+        <v>0.1168878134061503</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0418063131623395</v>
+        <v>0.04269854034958406</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>224</v>
+      </c>
+      <c r="J78" t="n">
+        <v>451</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1323900069.351491</v>
+        <v>1486172777.117326</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1615482242648034</v>
+        <v>0.1226671874988841</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03414601580733663</v>
+        <v>0.03279300295519034</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3265,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5052401410.859837</v>
+        <v>4343684173.921405</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0955934603843913</v>
+        <v>0.09409203930041103</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02535148987141166</v>
+        <v>0.02470517812547007</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>220</v>
+      </c>
+      <c r="J80" t="n">
+        <v>450</v>
+      </c>
+      <c r="K80" t="n">
+        <v>30.99370250728969</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3241136573.349247</v>
+        <v>4950015877.166225</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08763142358702673</v>
+        <v>0.1010213581337788</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02750414264766723</v>
+        <v>0.02740795303462475</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>209</v>
+      </c>
+      <c r="J81" t="n">
+        <v>451</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3331,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3496427299.815824</v>
+        <v>4121961389.31649</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1723116787714315</v>
+        <v>0.1828841603124099</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02005525379551813</v>
+        <v>0.02085750840746065</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>300</v>
+      </c>
+      <c r="J82" t="n">
+        <v>451</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1507444570.567595</v>
+        <v>2053221923.288439</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1571475373033572</v>
+        <v>0.1039449581203679</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04472986123933174</v>
+        <v>0.04227705972325906</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2451643013.296468</v>
+        <v>2474666508.072212</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1113893936080603</v>
+        <v>0.08037372519545664</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03491474569129597</v>
+        <v>0.0520063870212653</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,16 +3442,25 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2412840667.853916</v>
+        <v>2830240180.333348</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1169612422791426</v>
+        <v>0.1192866428635227</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04580931927295958</v>
+        <v>0.05158401534995095</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>63</v>
+      </c>
+      <c r="J85" t="n">
+        <v>451</v>
+      </c>
+      <c r="K85" t="n">
+        <v>36.34211426857749</v>
       </c>
     </row>
     <row r="86">
@@ -2838,17 +3479,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2684937782.063453</v>
+        <v>2268924767.496098</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1662213389965039</v>
+        <v>0.1162169251364394</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02242111158045071</v>
+        <v>0.0194660873766682</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1320472028.335591</v>
+        <v>1420319762.778451</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1535834257427489</v>
+        <v>0.1563557311045113</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04314994795796127</v>
+        <v>0.03623570802835174</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3549,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2753348164.859</v>
+        <v>3445465380.551123</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1593464641466728</v>
+        <v>0.1567575642545958</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0246785887984208</v>
+        <v>0.03055134829271898</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>61</v>
+      </c>
+      <c r="J88" t="n">
+        <v>449</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2793094815.039366</v>
+        <v>3493563778.851059</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1259714511817403</v>
+        <v>0.1132339044824897</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03258341761011121</v>
+        <v>0.0298487344132537</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3619,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1709452900.184014</v>
+        <v>2066364674.013302</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1241295109047894</v>
+        <v>0.1264618194148177</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05559232090018396</v>
+        <v>0.03883064828805785</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1722703102.506167</v>
+        <v>1646777452.475901</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1774425036538164</v>
+        <v>0.1631075875059166</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05560331214594744</v>
+        <v>0.06153280012121198</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2443554247.358119</v>
+        <v>2787250215.688343</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09743265818286247</v>
+        <v>0.08139515676127218</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04654909861540741</v>
+        <v>0.04054342495927671</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5014686801.975627</v>
+        <v>4565929136.470475</v>
       </c>
       <c r="F93" t="n">
-        <v>0.13811298777554</v>
+        <v>0.1196453064896588</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04692006365752345</v>
+        <v>0.04743075008489082</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>216</v>
+      </c>
+      <c r="J93" t="n">
+        <v>451</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2478284701.426857</v>
+        <v>1777262007.548594</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1092872189470026</v>
+        <v>0.1663961131968368</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0266811912735561</v>
+        <v>0.03119884759273083</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2509648505.652078</v>
+        <v>2232239842.646667</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1027322546917802</v>
+        <v>0.09596100322913165</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04801647299692252</v>
+        <v>0.04687995099998122</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3829,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2219038907.837313</v>
+        <v>2212642073.883161</v>
       </c>
       <c r="F96" t="n">
-        <v>0.130575292199447</v>
+        <v>0.09053381768873281</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02879857981807861</v>
+        <v>0.02905935754746091</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3363486662.912468</v>
+        <v>3827718036.921784</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1655492041711455</v>
+        <v>0.146987569981965</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02580127215405219</v>
+        <v>0.02270219524939542</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>235</v>
+      </c>
+      <c r="J97" t="n">
+        <v>451</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2873244621.75728</v>
+        <v>2522244669.485547</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08730712832870607</v>
+        <v>0.08336801692736714</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03271097526008417</v>
+        <v>0.02401995452119661</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>114</v>
+      </c>
+      <c r="J98" t="n">
+        <v>449</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3334129681.108004</v>
+        <v>2622534746.027133</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09194645930884125</v>
+        <v>0.1121648316853439</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02614411958144751</v>
+        <v>0.02666792138240024</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3462962213.693688</v>
+        <v>2996031907.005322</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1229469100918965</v>
+        <v>0.1140724192314909</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01907578111483765</v>
+        <v>0.01703216629261711</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>210</v>
+      </c>
+      <c r="J100" t="n">
+        <v>450</v>
+      </c>
+      <c r="K100" t="n">
+        <v>21.29773835640467</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2999062432.666721</v>
+        <v>3011542857.038195</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1789750632307198</v>
+        <v>0.1939674242823703</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04395223329986095</v>
+        <v>0.03752335019823309</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
